--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/RHODE_ISLAND_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/RHODE_ISLAND_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C14">
@@ -589,7 +589,7 @@
     <row r="16">
       <c r="B16" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C16">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C19">
@@ -641,7 +641,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C20">
@@ -672,7 +672,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C22">
@@ -685,7 +685,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C23">
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C28">
@@ -794,7 +794,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C31">
@@ -820,7 +820,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C33">
@@ -833,7 +833,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C34">
@@ -859,7 +859,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C36">
@@ -1007,7 +1007,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C47">
@@ -1033,7 +1033,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C49">
@@ -1046,7 +1046,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C50">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C56">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C88">
@@ -1821,7 +1821,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C105">
@@ -1920,41 +1920,6 @@
       </c>
       <c r="D112">
         <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/RHODE_ISLAND_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/RHODE_ISLAND_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>León</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -844,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -857,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -870,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -883,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -896,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -909,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -922,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -935,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -948,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Total</t>
@@ -979,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -992,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -1005,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -1018,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -1031,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -1044,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -1057,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -1070,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -1083,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Yahualica</t>
@@ -1096,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -1109,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1140,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1153,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1184,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -1197,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1210,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -1223,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -1236,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1267,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1298,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>San Pedro Yólox</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1373,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1399,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1412,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Cohuecan</t>
@@ -1425,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Cuautlancingo</t>
@@ -1438,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -1451,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1464,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -1477,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -1490,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1503,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Tilapa</t>
@@ -1516,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -1529,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -1542,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -1555,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1586,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1617,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1679,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1710,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -1723,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1754,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1767,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Jáltipan</t>
@@ -1780,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -1793,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -1806,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -1819,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Paso De Ovejas</t>
@@ -1832,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Texcatepec</t>
@@ -1845,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1858,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tlaltetela</t>
@@ -1871,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1884,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -1897,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Total</t>
